--- a/test/SAGA_Bliss_Audit 2nd ver..xlsx
+++ b/test/SAGA_Bliss_Audit 2nd ver..xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="400" yWindow="560" windowWidth="23080" windowHeight="13600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -515,7 +520,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,10 +528,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,23 +539,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,9 +571,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -586,6 +588,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -889,43 +894,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="A33:J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="1" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="67.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.375" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="4"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="46.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
       <c r="E1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,8 +943,8 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E3" s="15"/>
+    <row r="3" spans="1:9">
+      <c r="E3" s="14"/>
       <c r="F3" t="s">
         <v>1</v>
       </c>
@@ -951,8 +955,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E4" s="15"/>
+    <row r="4" spans="1:9">
+      <c r="E4" s="14"/>
       <c r="F4" t="s">
         <v>1</v>
       </c>
@@ -963,8 +967,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E5" s="15"/>
+    <row r="5" spans="1:9">
+      <c r="E5" s="14"/>
       <c r="F5" t="s">
         <v>1</v>
       </c>
@@ -978,8 +982,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E6" s="15"/>
+    <row r="6" spans="1:9">
+      <c r="E6" s="14"/>
       <c r="F6" t="s">
         <v>1</v>
       </c>
@@ -993,8 +997,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E7" s="15"/>
+    <row r="7" spans="1:9">
+      <c r="E7" s="14"/>
       <c r="F7" t="s">
         <v>1</v>
       </c>
@@ -1008,8 +1012,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E8" s="15"/>
+    <row r="8" spans="1:9">
+      <c r="E8" s="14"/>
       <c r="F8" t="s">
         <v>1</v>
       </c>
@@ -1023,8 +1027,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="15"/>
+    <row r="9" spans="1:9">
+      <c r="E9" s="14"/>
       <c r="F9" t="s">
         <v>1</v>
       </c>
@@ -1038,8 +1042,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E10" s="15"/>
+    <row r="10" spans="1:9">
+      <c r="E10" s="14"/>
       <c r="F10" t="s">
         <v>1</v>
       </c>
@@ -1053,8 +1057,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="15"/>
+    <row r="11" spans="1:9">
+      <c r="E11" s="14"/>
       <c r="F11" t="s">
         <v>1</v>
       </c>
@@ -1068,8 +1072,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E12" s="15"/>
+    <row r="12" spans="1:9">
+      <c r="E12" s="14"/>
       <c r="F12" t="s">
         <v>1</v>
       </c>
@@ -1083,8 +1087,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E13" s="15"/>
+    <row r="13" spans="1:9">
+      <c r="E13" s="14"/>
       <c r="F13" t="s">
         <v>1</v>
       </c>
@@ -1098,8 +1102,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="15"/>
+    <row r="14" spans="1:9">
+      <c r="E14" s="14"/>
       <c r="F14" t="s">
         <v>1</v>
       </c>
@@ -1113,8 +1117,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="15"/>
+    <row r="15" spans="1:9">
+      <c r="E15" s="14"/>
       <c r="F15" t="s">
         <v>1</v>
       </c>
@@ -1128,8 +1132,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E16" s="15"/>
+    <row r="16" spans="1:9">
+      <c r="E16" s="14"/>
       <c r="F16" t="s">
         <v>1</v>
       </c>
@@ -1143,8 +1147,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E17" s="15"/>
+    <row r="17" spans="1:9">
+      <c r="E17" s="14"/>
       <c r="F17" t="s">
         <v>1</v>
       </c>
@@ -1158,7 +1162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1176,14 +1180,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>1</v>
       </c>
       <c r="B19" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E19" s="6"/>
@@ -1200,14 +1204,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>123</v>
       </c>
       <c r="E20" s="6"/>
@@ -1224,8 +1228,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E21" s="15"/>
+    <row r="21" spans="1:9">
+      <c r="E21" s="14"/>
       <c r="F21" t="s">
         <v>1</v>
       </c>
@@ -1239,8 +1243,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E22" s="15"/>
+    <row r="22" spans="1:9">
+      <c r="E22" s="14"/>
       <c r="F22" t="s">
         <v>1</v>
       </c>
@@ -1254,8 +1258,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="15"/>
+    <row r="23" spans="1:9">
+      <c r="E23" s="14"/>
       <c r="F23" t="s">
         <v>1</v>
       </c>
@@ -1269,8 +1273,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E24" s="15"/>
+    <row r="24" spans="1:9">
+      <c r="E24" s="14"/>
       <c r="F24" t="s">
         <v>1</v>
       </c>
@@ -1284,8 +1288,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E25" s="15"/>
+    <row r="25" spans="1:9">
+      <c r="E25" s="14"/>
       <c r="F25" t="s">
         <v>1</v>
       </c>
@@ -1299,8 +1303,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E26" s="15"/>
+    <row r="26" spans="1:9">
+      <c r="E26" s="14"/>
       <c r="F26" t="s">
         <v>1</v>
       </c>
@@ -1314,8 +1318,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E27" s="15"/>
+    <row r="27" spans="1:9">
+      <c r="E27" s="14"/>
       <c r="F27" t="s">
         <v>1</v>
       </c>
@@ -1329,8 +1333,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E28" s="15"/>
+    <row r="28" spans="1:9">
+      <c r="E28" s="14"/>
       <c r="F28" t="s">
         <v>1</v>
       </c>
@@ -1344,8 +1348,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E29" s="15"/>
+    <row r="29" spans="1:9">
+      <c r="E29" s="14"/>
       <c r="F29" t="s">
         <v>1</v>
       </c>
@@ -1359,8 +1363,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E30" s="15"/>
+    <row r="30" spans="1:9">
+      <c r="E30" s="14"/>
       <c r="F30" t="s">
         <v>1</v>
       </c>
@@ -1374,8 +1378,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E31" s="15"/>
+    <row r="31" spans="1:9">
+      <c r="E31" s="14"/>
       <c r="F31" t="s">
         <v>1</v>
       </c>
@@ -1389,8 +1393,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E32" s="15"/>
+    <row r="32" spans="1:9">
+      <c r="E32" s="14"/>
       <c r="F32" t="s">
         <v>1</v>
       </c>
@@ -1404,8 +1408,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E33" s="15"/>
+    <row r="33" spans="1:9">
+      <c r="E33" s="14"/>
       <c r="F33" t="s">
         <v>1</v>
       </c>
@@ -1419,7 +1423,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -1437,17 +1441,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>1</v>
       </c>
       <c r="B35" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14"/>
       <c r="F35" t="s">
         <v>1</v>
       </c>
@@ -1461,17 +1465,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>1</v>
       </c>
       <c r="B36" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14"/>
       <c r="F36" t="s">
         <v>1</v>
       </c>
@@ -1485,7 +1489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -1503,17 +1507,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>1</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14"/>
       <c r="F38" t="s">
         <v>1</v>
       </c>
@@ -1527,14 +1531,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>1</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>128</v>
       </c>
       <c r="E39" s="6"/>
@@ -1551,14 +1555,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>1</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>112</v>
       </c>
       <c r="E40" s="6"/>
@@ -1575,8 +1579,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E41" s="15"/>
+    <row r="41" spans="1:9">
+      <c r="E41" s="14"/>
       <c r="F41" t="s">
         <v>1</v>
       </c>
@@ -1590,8 +1594,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="15"/>
+    <row r="42" spans="1:9">
+      <c r="E42" s="14"/>
       <c r="F42" t="s">
         <v>1</v>
       </c>
@@ -1605,17 +1609,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>1</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E43" s="15"/>
+      <c r="E43" s="14"/>
       <c r="F43" t="s">
         <v>1</v>
       </c>
@@ -1629,8 +1633,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="15"/>
+    <row r="44" spans="1:9">
+      <c r="E44" s="14"/>
       <c r="F44" t="s">
         <v>1</v>
       </c>
@@ -1644,17 +1648,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>1</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E45" s="15"/>
+      <c r="E45" s="14"/>
       <c r="F45" t="s">
         <v>1</v>
       </c>
@@ -1668,8 +1672,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="15"/>
+    <row r="46" spans="1:9">
+      <c r="E46" s="14"/>
       <c r="F46" t="s">
         <v>1</v>
       </c>
@@ -1683,8 +1687,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E47" s="15"/>
+    <row r="47" spans="1:9">
+      <c r="E47" s="14"/>
       <c r="F47" t="s">
         <v>1</v>
       </c>
@@ -1698,17 +1702,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>1</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E48" s="15"/>
+      <c r="E48" s="14"/>
       <c r="F48" t="s">
         <v>1</v>
       </c>
@@ -1722,8 +1726,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E49" s="15"/>
+    <row r="49" spans="1:9">
+      <c r="E49" s="14"/>
       <c r="F49" t="s">
         <v>1</v>
       </c>
@@ -1737,8 +1741,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E50" s="15"/>
+    <row r="50" spans="1:9">
+      <c r="E50" s="14"/>
       <c r="F50" t="s">
         <v>1</v>
       </c>
@@ -1752,8 +1756,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E51" s="15"/>
+    <row r="51" spans="1:9">
+      <c r="E51" s="14"/>
       <c r="F51" t="s">
         <v>1</v>
       </c>
@@ -1767,17 +1771,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>1</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E52" s="15"/>
+      <c r="E52" s="14"/>
       <c r="F52" t="s">
         <v>1</v>
       </c>
@@ -1791,8 +1795,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E53" s="15"/>
+    <row r="53" spans="1:9">
+      <c r="E53" s="14"/>
       <c r="F53" t="s">
         <v>1</v>
       </c>
@@ -1806,17 +1810,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>1</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E54" s="15"/>
+      <c r="E54" s="14"/>
       <c r="F54" t="s">
         <v>1</v>
       </c>
@@ -1830,17 +1834,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>1</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E55" s="15"/>
+      <c r="E55" s="14"/>
       <c r="F55" t="s">
         <v>1</v>
       </c>
@@ -1854,17 +1858,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>1</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E56" s="15"/>
+      <c r="E56" s="14"/>
       <c r="F56" t="s">
         <v>1</v>
       </c>
@@ -1878,17 +1882,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>1</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E57" s="15"/>
+      <c r="E57" s="14"/>
       <c r="F57" t="s">
         <v>1</v>
       </c>
@@ -1902,8 +1906,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E58" s="15"/>
+    <row r="58" spans="1:9">
+      <c r="E58" s="14"/>
       <c r="F58" t="s">
         <v>1</v>
       </c>
@@ -1917,7 +1921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -1935,14 +1939,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="45">
       <c r="A60" t="s">
         <v>1</v>
       </c>
       <c r="B60" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="11" t="s">
         <v>124</v>
       </c>
       <c r="E60" s="6"/>
@@ -1959,14 +1963,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>1</v>
       </c>
       <c r="B61" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E61" s="6"/>
@@ -1983,14 +1987,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="30">
       <c r="A62" t="s">
         <v>1</v>
       </c>
       <c r="B62" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="8" t="s">
         <v>107</v>
       </c>
       <c r="E62" s="6"/>
@@ -2007,14 +2011,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>1</v>
       </c>
       <c r="B63" t="s">
         <v>106</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="9" t="s">
         <v>110</v>
       </c>
       <c r="E63" s="6"/>
@@ -2031,14 +2035,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>1</v>
       </c>
       <c r="B64" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="10" t="s">
         <v>108</v>
       </c>
       <c r="E64" s="6"/>
@@ -2055,14 +2059,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>1</v>
       </c>
       <c r="B65" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="13" t="s">
         <v>111</v>
       </c>
       <c r="E65" s="6"/>
@@ -2079,17 +2083,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66" s="17" t="s">
+    <row r="66" spans="1:9" ht="75">
+      <c r="A66" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E66" s="15"/>
+      <c r="E66" s="14"/>
       <c r="F66" t="s">
         <v>1</v>
       </c>
@@ -2103,8 +2107,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E67" s="15"/>
+    <row r="67" spans="1:9">
+      <c r="E67" s="14"/>
       <c r="F67" t="s">
         <v>1</v>
       </c>
@@ -2118,7 +2122,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="F69" s="3" t="s">
         <v>45</v>
       </c>
@@ -2126,7 +2130,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="F70" t="s">
         <v>46</v>
       </c>
@@ -2137,7 +2141,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="F71" t="s">
         <v>46</v>
       </c>
@@ -2151,7 +2155,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="F72" t="s">
         <v>46</v>
       </c>
@@ -2165,7 +2169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="F73" t="s">
         <v>46</v>
       </c>
@@ -2179,7 +2183,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="F74" t="s">
         <v>46</v>
       </c>
@@ -2193,7 +2197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="F75" t="s">
         <v>46</v>
       </c>
@@ -2207,7 +2211,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="F76" t="s">
         <v>46</v>
       </c>
@@ -2221,7 +2225,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="F77" t="s">
         <v>46</v>
       </c>
@@ -2235,7 +2239,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="F78" t="s">
         <v>46</v>
       </c>
@@ -2249,7 +2253,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="F79" t="s">
         <v>46</v>
       </c>
@@ -2263,7 +2267,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="F80" t="s">
         <v>46</v>
       </c>
@@ -2277,7 +2281,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:9">
       <c r="F81" t="s">
         <v>46</v>
       </c>
@@ -2291,7 +2295,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:9">
       <c r="F82" t="s">
         <v>46</v>
       </c>
@@ -2305,7 +2309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:9">
       <c r="F84" s="3" t="s">
         <v>58</v>
       </c>
@@ -2313,7 +2317,7 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:9">
       <c r="F85" t="s">
         <v>59</v>
       </c>
@@ -2321,7 +2325,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:9">
       <c r="F86" t="s">
         <v>59</v>
       </c>
@@ -2332,7 +2336,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:9">
       <c r="F87" t="s">
         <v>59</v>
       </c>
@@ -2343,7 +2347,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:9">
       <c r="F88" t="s">
         <v>59</v>
       </c>
@@ -2354,7 +2358,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:9">
       <c r="F89" t="s">
         <v>59</v>
       </c>
@@ -2365,7 +2369,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:9">
       <c r="F90" t="s">
         <v>59</v>
       </c>
@@ -2376,7 +2380,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:9">
       <c r="F91" t="s">
         <v>59</v>
       </c>
@@ -2387,7 +2391,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:9">
       <c r="F92" t="s">
         <v>59</v>
       </c>
@@ -2398,7 +2402,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:9">
       <c r="F93" t="s">
         <v>59</v>
       </c>
@@ -2409,7 +2413,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="94" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:9">
       <c r="F94" t="s">
         <v>59</v>
       </c>
@@ -2420,7 +2424,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:9">
       <c r="F95" t="s">
         <v>59</v>
       </c>
@@ -2431,7 +2435,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:9">
       <c r="F96" t="s">
         <v>59</v>
       </c>
@@ -2442,7 +2446,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:9">
       <c r="F98" s="3" t="s">
         <v>71</v>
       </c>
@@ -2450,7 +2454,7 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:9">
       <c r="F99" t="s">
         <v>72</v>
       </c>
@@ -2458,7 +2462,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="100" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:9">
       <c r="F100" t="s">
         <v>72</v>
       </c>
@@ -2469,7 +2473,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:9">
       <c r="F101" t="s">
         <v>72</v>
       </c>
@@ -2480,7 +2484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:9">
       <c r="F102" t="s">
         <v>72</v>
       </c>
@@ -2491,7 +2495,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:9">
       <c r="F103" t="s">
         <v>72</v>
       </c>
@@ -2502,7 +2506,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:9">
       <c r="F104" t="s">
         <v>72</v>
       </c>
@@ -2513,7 +2517,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:9">
       <c r="F105" t="s">
         <v>72</v>
       </c>
@@ -2524,7 +2528,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:9">
       <c r="F107" s="3" t="s">
         <v>78</v>
       </c>
@@ -2532,7 +2536,7 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:9">
       <c r="F108" t="s">
         <v>79</v>
       </c>
@@ -2540,7 +2544,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:9">
       <c r="F109" t="s">
         <v>79</v>
       </c>
@@ -2551,7 +2555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:9">
       <c r="F110" t="s">
         <v>79</v>
       </c>
@@ -2562,7 +2566,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:9">
       <c r="F111" t="s">
         <v>79</v>
       </c>
@@ -2573,7 +2577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:9">
       <c r="F112" t="s">
         <v>79</v>
       </c>
@@ -2584,7 +2588,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:9">
       <c r="F113" t="s">
         <v>79</v>
       </c>
@@ -2595,7 +2599,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:9">
       <c r="F114" t="s">
         <v>79</v>
       </c>
@@ -2606,7 +2610,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:9">
       <c r="F116" s="3" t="s">
         <v>83</v>
       </c>
@@ -2614,7 +2618,7 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:9">
       <c r="F117" t="s">
         <v>84</v>
       </c>
@@ -2622,7 +2626,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="118" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:9">
       <c r="F118" t="s">
         <v>84</v>
       </c>
@@ -2633,7 +2637,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:9">
       <c r="F119" t="s">
         <v>84</v>
       </c>
@@ -2644,7 +2648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:9">
       <c r="F120" t="s">
         <v>84</v>
       </c>
@@ -2655,7 +2659,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="121" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:9">
       <c r="F121" t="s">
         <v>84</v>
       </c>
@@ -2666,7 +2670,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="122" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:9">
       <c r="F122" t="s">
         <v>84</v>
       </c>
@@ -2677,7 +2681,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="123" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:9">
       <c r="F123" t="s">
         <v>84</v>
       </c>
@@ -2688,7 +2692,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="124" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:9">
       <c r="F124" t="s">
         <v>84</v>
       </c>
@@ -2699,7 +2703,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="125" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:9">
       <c r="F125" t="s">
         <v>84</v>
       </c>
@@ -2710,7 +2714,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="126" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:9">
       <c r="F126" t="s">
         <v>84</v>
       </c>
@@ -2721,7 +2725,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:9">
       <c r="F127" t="s">
         <v>84</v>
       </c>
@@ -2732,7 +2736,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="128" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:9">
       <c r="F128" t="s">
         <v>84</v>
       </c>
@@ -2743,7 +2747,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:8">
       <c r="F129" t="s">
         <v>84</v>
       </c>
@@ -2754,7 +2758,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:8">
       <c r="F130" t="s">
         <v>84</v>
       </c>
@@ -2765,7 +2769,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:8">
       <c r="F131" t="s">
         <v>84</v>
       </c>
@@ -2776,7 +2780,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="6:8">
       <c r="F132" t="s">
         <v>84</v>
       </c>
@@ -2787,7 +2791,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="6:8">
       <c r="F133" t="s">
         <v>84</v>
       </c>
@@ -2798,7 +2802,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:8">
       <c r="F134" t="s">
         <v>84</v>
       </c>
@@ -2809,7 +2813,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="6:8">
       <c r="F135" t="s">
         <v>84</v>
       </c>
@@ -2820,7 +2824,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="6:8">
       <c r="F136" t="s">
         <v>84</v>
       </c>
@@ -2831,7 +2835,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="6:8">
       <c r="F137" t="s">
         <v>84</v>
       </c>
@@ -2842,7 +2846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="6:8">
       <c r="F138" t="s">
         <v>84</v>
       </c>
@@ -2859,7 +2863,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2869,12 +2878,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2884,11 +2898,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>